--- a/Data/EC/NIT-9002311527.xlsx
+++ b/Data/EC/NIT-9002311527.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{318BE21D-5B70-4C60-83AE-8990481A7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACB0112-907B-4A79-A413-A763C46019E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5D35670A-5058-4896-A2E8-F471A5E9D9FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFAEA66A-0AA6-4F09-8059-A3A5C7FA1344}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,241 +65,241 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047386707</t>
+  </si>
+  <si>
+    <t>ELIZABETH VILLARREAL ALVAREZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1047367732</t>
   </si>
   <si>
     <t>LUIS CARLOS ANGARITA LEON</t>
   </si>
   <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1803</t>
   </si>
   <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1047386707</t>
-  </si>
-  <si>
-    <t>ELIZABETH VILLARREAL ALVAREZ</t>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
   </si>
   <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -398,7 +398,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -411,9 +413,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -613,23 +613,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,10 +657,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +713,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D035028-DE12-5B57-8AFA-421005133EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681623D6-5107-AE09-B2C5-902161442734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8E1B25-3BD5-446F-B0D7-63CA06503F0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB36CF6-B88B-4854-AD51-EF318A171002}">
   <dimension ref="B2:J98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1242,10 +1242,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46200</v>
+        <v>36000</v>
       </c>
       <c r="G16" s="18">
-        <v>1155000</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1265,10 +1265,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46200</v>
+        <v>36000</v>
       </c>
       <c r="G17" s="18">
-        <v>1155000</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1279,16 +1279,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>31200</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="18">
         <v>900000</v>
@@ -1302,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>36000</v>
@@ -1325,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>36000</v>
@@ -1348,13 +1348,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>36000</v>
@@ -1371,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36000</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36000</v>
@@ -1417,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>36000</v>
@@ -1440,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>36000</v>
@@ -1463,13 +1463,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>36000</v>
@@ -1486,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>36000</v>
@@ -1509,13 +1509,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>36000</v>
@@ -1532,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>36000</v>
@@ -1555,13 +1555,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>36000</v>
@@ -1578,13 +1578,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>36000</v>
@@ -1601,13 +1601,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>36000</v>
@@ -1624,13 +1624,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>36000</v>
@@ -1647,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>36000</v>
@@ -1670,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>36000</v>
+        <v>46200</v>
       </c>
       <c r="G35" s="18">
-        <v>900000</v>
+        <v>1250000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>36000</v>
@@ -1716,19 +1716,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>36000</v>
+        <v>46200</v>
       </c>
       <c r="G37" s="18">
-        <v>900000</v>
+        <v>1250000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1739,13 +1739,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>36000</v>
@@ -1762,13 +1762,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>36000</v>
@@ -1785,13 +1785,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>36000</v>
@@ -1808,13 +1808,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>36000</v>
@@ -1831,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>36000</v>
@@ -1854,13 +1854,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>36000</v>
@@ -1877,13 +1877,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>36000</v>
@@ -1900,13 +1900,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>36000</v>
@@ -1923,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>36000</v>
@@ -1946,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>36000</v>
@@ -1969,13 +1969,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>36000</v>
@@ -1992,13 +1992,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>36000</v>
@@ -2015,13 +2015,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>36000</v>
@@ -2038,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>36000</v>
@@ -2061,13 +2061,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>36000</v>
@@ -2084,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>36000</v>
@@ -2107,13 +2107,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>36000</v>
@@ -2130,13 +2130,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>36000</v>
@@ -2153,13 +2153,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>36000</v>
@@ -2176,13 +2176,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>36000</v>
@@ -2199,13 +2199,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>36000</v>
@@ -2222,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>36000</v>
@@ -2245,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>36000</v>
@@ -2268,13 +2268,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>36000</v>
@@ -2291,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>36000</v>
@@ -2314,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>36000</v>
@@ -2337,13 +2337,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>36000</v>
@@ -2360,13 +2360,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>36000</v>
@@ -2383,13 +2383,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>36000</v>
@@ -2406,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>36000</v>
@@ -2429,13 +2429,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>36000</v>
@@ -2452,13 +2452,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>36000</v>
@@ -2475,13 +2475,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>36000</v>
@@ -2498,13 +2498,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>36000</v>
@@ -2521,13 +2521,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>36000</v>
@@ -2544,13 +2544,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>36000</v>
@@ -2567,10 +2567,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>69</v>
@@ -2590,10 +2590,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>70</v>
@@ -2613,10 +2613,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>71</v>
@@ -2636,10 +2636,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>72</v>
@@ -2659,10 +2659,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>73</v>
@@ -2682,10 +2682,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>74</v>
@@ -2705,10 +2705,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>75</v>
@@ -2728,10 +2728,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>76</v>
@@ -2751,10 +2751,10 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>77</v>
@@ -2774,10 +2774,10 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>78</v>
@@ -2797,10 +2797,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>79</v>
@@ -2820,10 +2820,10 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>80</v>
@@ -2843,10 +2843,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>81</v>
@@ -2866,10 +2866,10 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>82</v>
@@ -2889,10 +2889,10 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>83</v>
@@ -2912,10 +2912,10 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>84</v>
@@ -2935,10 +2935,10 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>85</v>
@@ -2958,10 +2958,10 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>86</v>
@@ -2981,16 +2981,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F92" s="24">
-        <v>36000</v>
+        <v>31200</v>
       </c>
       <c r="G92" s="24">
         <v>900000</v>
